--- a/dashboard_loader/infrastructure_npa_uploader/infrastructure_npa.xlsx
+++ b/dashboard_loader/infrastructure_npa_uploader/infrastructure_npa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" state="visible" r:id="rId2"/>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">The key project status is at January 2018 reflecting the Department of Infrastructure and Regional Development's latest available information.</t>
   </si>
   <si>
-    <t xml:space="preserve">Only includes Investment Programme, Building Australia Fund, Managed Motorways, National Highway Upgrade Programme, Infrastructure Growth Package, Northern Australia Roads and Beef Road Programme, and 2016 Federal Election Commitments projects. Total investment includes outstanding projects funded under previous governments.</t>
+    <t xml:space="preserve">Only includes Investment Program, Building Australia Fund, Managed Motorways, National Highway Upgrade Program, Infrastructure Growth Package, Northern Australia Roads and Beef Road Program, and 2016 Federal Election Commitments projects. Total investment includes outstanding projects funded under previous governments.</t>
   </si>
   <si>
     <t xml:space="preserve">Completed projects have achieved their main purpose, e.g. the road works are opened to traffic. Projects underway are either currently under construction or, in the case of study projects, have commenced. Pending projects are those currently in the planning stage or that have not yet reached their scheduled construction start date.</t>
@@ -432,7 +432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,12 +458,8 @@
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,14 +500,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,14 +520,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -548,22 +528,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -572,10 +540,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -593,14 +557,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 10" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -672,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +652,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1054,7 +1017,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1062,8 +1025,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="131.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="131.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.71"/>
   </cols>
   <sheetData>
@@ -1071,272 +1034,270 @@
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1364,7 +1325,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1404,7 +1365,7 @@
       <c r="A4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="28" t="n">
+      <c r="B4" s="20" t="n">
         <v>2017</v>
       </c>
     </row>
@@ -1412,12 +1373,12 @@
       <c r="A5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -1426,7 +1387,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1434,22 +1395,22 @@
       <c r="A8" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="31" t="s">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="23" t="s">
         <v>82</v>
       </c>
     </row>

--- a/dashboard_loader/infrastructure_npa_uploader/infrastructure_npa.xlsx
+++ b/dashboard_loader/infrastructure_npa_uploader/infrastructure_npa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" state="visible" r:id="rId2"/>
@@ -150,7 +150,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Western Highway — Ballarat to Stawell Duplication</t>
+    <t xml:space="preserve">Western Highway - Ballarat to Stawell Duplication</t>
   </si>
   <si>
     <t xml:space="preserve">Construction from Buangor to Ararat commenced in March 2018 and is expected to be completed by mid-2020
@@ -635,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1017,8 +1017,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
